--- a/src/Python数据分析与挖掘实战/环境数据预测蔬菜价格/haichong-test.xlsx
+++ b/src/Python数据分析与挖掘实战/环境数据预测蔬菜价格/haichong-test.xlsx
@@ -258,12 +258,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,19 +281,52 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,62 +348,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,10 +363,48 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -399,31 +415,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,7 +431,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,7 +557,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,7 +575,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,49 +593,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,85 +611,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,6 +640,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -658,6 +690,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,30 +729,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -709,41 +737,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -752,10 +745,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -764,19 +757,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -785,112 +778,112 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -899,7 +892,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1218,7 +1211,7 @@
   <dimension ref="A1:N79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1267,7 +1260,7 @@
         <v>6.52</v>
       </c>
       <c r="N1" s="2">
-        <v>97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:14">
@@ -1311,7 +1304,7 @@
         <v>9.67</v>
       </c>
       <c r="N2" s="2">
-        <v>509</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:14">
@@ -1355,7 +1348,7 @@
         <v>10.1</v>
       </c>
       <c r="N3" s="2">
-        <v>251</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:14">
@@ -1399,7 +1392,7 @@
         <v>8.04</v>
       </c>
       <c r="N4" s="2">
-        <v>145</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" ht="15" spans="1:14">
@@ -1443,7 +1436,7 @@
         <v>11.21</v>
       </c>
       <c r="N5" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:14">
@@ -1487,7 +1480,7 @@
         <v>9.29</v>
       </c>
       <c r="N6" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:14">
@@ -1531,7 +1524,7 @@
         <v>3.6</v>
       </c>
       <c r="N7" s="2">
-        <v>157</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:14">
@@ -1575,7 +1568,7 @@
         <v>9</v>
       </c>
       <c r="N8" s="2">
-        <v>237</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:14">
@@ -1619,7 +1612,7 @@
         <v>4.48</v>
       </c>
       <c r="N9" s="2">
-        <v>207</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:14">
@@ -1663,7 +1656,7 @@
         <v>1.54</v>
       </c>
       <c r="N10" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:14">
@@ -1707,7 +1700,7 @@
         <v>8.81</v>
       </c>
       <c r="N11" s="2">
-        <v>110</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:14">
@@ -1751,7 +1744,7 @@
         <v>11.29</v>
       </c>
       <c r="N12" s="2">
-        <v>99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:14">
@@ -1795,7 +1788,7 @@
         <v>9.42</v>
       </c>
       <c r="N13" s="2">
-        <v>194</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:14">
@@ -1839,7 +1832,7 @@
         <v>12.75</v>
       </c>
       <c r="N14" s="2">
-        <v>155</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:14">
@@ -1883,7 +1876,7 @@
         <v>15.27</v>
       </c>
       <c r="N15" s="2">
-        <v>166</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:14">
@@ -1927,7 +1920,7 @@
         <v>11.5</v>
       </c>
       <c r="N16" s="2">
-        <v>300</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:14">
@@ -1971,7 +1964,7 @@
         <v>11.58</v>
       </c>
       <c r="N17" s="2">
-        <v>51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:14">
@@ -2015,7 +2008,7 @@
         <v>8.5</v>
       </c>
       <c r="N18" s="2">
-        <v>284</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:14">
@@ -2059,7 +2052,7 @@
         <v>1.21</v>
       </c>
       <c r="N19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:14">
@@ -2103,7 +2096,7 @@
         <v>11.1</v>
       </c>
       <c r="N20" s="2">
-        <v>441</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:14">
@@ -2147,7 +2140,7 @@
         <v>6.83</v>
       </c>
       <c r="N21" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:14">
@@ -2191,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="2">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:14">
@@ -2235,7 +2228,7 @@
         <v>0.56</v>
       </c>
       <c r="N23" s="2">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:14">
@@ -2279,7 +2272,7 @@
         <v>2.44</v>
       </c>
       <c r="N24" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:14">
@@ -2323,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="2">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:14">
@@ -2367,7 +2360,7 @@
         <v>1.42</v>
       </c>
       <c r="N26" s="2">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:14">
@@ -2411,7 +2404,7 @@
         <v>0.08</v>
       </c>
       <c r="N27" s="2">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:14">
@@ -2455,7 +2448,7 @@
         <v>0.06</v>
       </c>
       <c r="N28" s="2">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:14">
@@ -2499,7 +2492,7 @@
         <v>3.19</v>
       </c>
       <c r="N29" s="2">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:14">
@@ -2543,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="2">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:14">
@@ -2587,7 +2580,7 @@
         <v>1.67</v>
       </c>
       <c r="N31" s="2">
-        <v>158</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:14">
@@ -2631,7 +2624,7 @@
         <v>3.33</v>
       </c>
       <c r="N32" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:14">
@@ -2675,7 +2668,7 @@
         <v>10.06</v>
       </c>
       <c r="N33" s="2">
-        <v>132</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:14">
@@ -2719,7 +2712,7 @@
         <v>0.21</v>
       </c>
       <c r="N34" s="2">
-        <v>181</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:14">
@@ -2763,7 +2756,7 @@
         <v>8.47</v>
       </c>
       <c r="N35" s="2">
-        <v>163</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:14">
@@ -2807,7 +2800,7 @@
         <v>9.29</v>
       </c>
       <c r="N36" s="2">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" ht="15" spans="1:14">
@@ -2851,7 +2844,7 @@
         <v>10.6</v>
       </c>
       <c r="N37" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:14">
@@ -2895,7 +2888,7 @@
         <v>9.25</v>
       </c>
       <c r="N38" s="2">
-        <v>68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:14">
@@ -2939,7 +2932,7 @@
         <v>5.94</v>
       </c>
       <c r="N39" s="2">
-        <v>110</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:14">
@@ -2983,7 +2976,7 @@
         <v>7.19</v>
       </c>
       <c r="N40" s="2">
-        <v>63</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:14">
@@ -3027,7 +3020,7 @@
         <v>8.88</v>
       </c>
       <c r="N41" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:14">
@@ -3071,7 +3064,7 @@
         <v>0.04</v>
       </c>
       <c r="N42" s="2">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:14">
@@ -3115,7 +3108,7 @@
         <v>2.92</v>
       </c>
       <c r="N43" s="2">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:14">
@@ -3159,7 +3152,7 @@
         <v>0.29</v>
       </c>
       <c r="N44" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:14">
@@ -3203,7 +3196,7 @@
         <v>3.69</v>
       </c>
       <c r="N45" s="2">
-        <v>107</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:14">
@@ -3247,7 +3240,7 @@
         <v>4.33</v>
       </c>
       <c r="N46" s="2">
-        <v>142</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" ht="15" spans="1:14">
@@ -3291,7 +3284,7 @@
         <v>3.81</v>
       </c>
       <c r="N47" s="2">
-        <v>95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" ht="15" spans="1:14">
@@ -3335,7 +3328,7 @@
         <v>6.31</v>
       </c>
       <c r="N48" s="2">
-        <v>74</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" ht="15" spans="1:14">
@@ -3379,7 +3372,7 @@
         <v>9.35</v>
       </c>
       <c r="N49" s="2">
-        <v>69</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:14">
@@ -3423,7 +3416,7 @@
         <v>5.02</v>
       </c>
       <c r="N50" s="2">
-        <v>120</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:14">
@@ -3467,7 +3460,7 @@
         <v>3.67</v>
       </c>
       <c r="N51" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" ht="15" spans="1:14">
@@ -3511,7 +3504,7 @@
         <v>4.96</v>
       </c>
       <c r="N52" s="2">
-        <v>62</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" ht="15" spans="1:14">
@@ -3555,7 +3548,7 @@
         <v>3.02</v>
       </c>
       <c r="N53" s="2">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:14">
@@ -3599,7 +3592,7 @@
         <v>4.67</v>
       </c>
       <c r="N54" s="2">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" ht="15" spans="1:14">
@@ -3643,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="N55" s="2">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" ht="15" spans="1:14">
@@ -3687,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="N56" s="2">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" ht="15" spans="1:14">
@@ -3731,7 +3724,7 @@
         <v>2.33</v>
       </c>
       <c r="N57" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" ht="15" spans="1:14">
@@ -3775,7 +3768,7 @@
         <v>2.23</v>
       </c>
       <c r="N58" s="2">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" ht="15" spans="1:14">
@@ -3819,7 +3812,7 @@
         <v>8.06</v>
       </c>
       <c r="N59" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:14">
@@ -3863,7 +3856,7 @@
         <v>6.92</v>
       </c>
       <c r="N60" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" ht="15" spans="1:14">
@@ -3907,7 +3900,7 @@
         <v>6.62</v>
       </c>
       <c r="N61" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" ht="15" spans="1:14">
@@ -3951,7 +3944,7 @@
         <v>7.44</v>
       </c>
       <c r="N62" s="2">
-        <v>57</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" ht="15" spans="1:14">
@@ -3995,7 +3988,7 @@
         <v>8.5</v>
       </c>
       <c r="N63" s="2">
-        <v>104</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" ht="15" spans="1:14">
@@ -4039,7 +4032,7 @@
         <v>12.6</v>
       </c>
       <c r="N64" s="2">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" ht="15" spans="1:14">
@@ -4083,7 +4076,7 @@
         <v>7.27</v>
       </c>
       <c r="N65" s="2">
-        <v>169</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" ht="15" spans="1:14">
@@ -4127,7 +4120,7 @@
         <v>3.62</v>
       </c>
       <c r="N66" s="2">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" ht="15" spans="1:14">
@@ -4171,7 +4164,7 @@
         <v>7.77</v>
       </c>
       <c r="N67" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" ht="15" spans="1:14">
@@ -4215,7 +4208,7 @@
         <v>1.92</v>
       </c>
       <c r="N68" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" ht="15" spans="1:14">
@@ -4259,7 +4252,7 @@
         <v>3.77</v>
       </c>
       <c r="N69" s="2">
-        <v>96</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="15" spans="1:14">
@@ -4303,7 +4296,7 @@
         <v>0.02</v>
       </c>
       <c r="N70" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" ht="15" spans="1:14">
@@ -4347,7 +4340,7 @@
         <v>0.73</v>
       </c>
       <c r="N71" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" ht="15" spans="1:14">
@@ -4391,7 +4384,7 @@
         <v>1.35</v>
       </c>
       <c r="N72" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" ht="15" spans="1:14">
@@ -4435,7 +4428,7 @@
         <v>1.4</v>
       </c>
       <c r="N73" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" ht="15" spans="1:14">
@@ -4479,7 +4472,7 @@
         <v>1.77</v>
       </c>
       <c r="N74" s="2">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" ht="15" spans="1:14">
@@ -4523,7 +4516,7 @@
         <v>1.67</v>
       </c>
       <c r="N75" s="2">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" ht="15" spans="1:14">
@@ -4567,7 +4560,7 @@
         <v>1.71</v>
       </c>
       <c r="N76" s="2">
-        <v>71</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" ht="15" spans="1:14">
@@ -4611,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="N77" s="2">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" ht="15" spans="1:14">
@@ -4655,7 +4648,7 @@
         <v>0.65</v>
       </c>
       <c r="N78" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" ht="15" spans="1:14">
@@ -4699,7 +4692,7 @@
         <v>0.92</v>
       </c>
       <c r="N79" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/Python数据分析与挖掘实战/环境数据预测蔬菜价格/haichong-test.xlsx
+++ b/src/Python数据分析与挖掘实战/环境数据预测蔬菜价格/haichong-test.xlsx
@@ -258,12 +258,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,10 +278,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -294,6 +308,37 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -302,7 +347,50 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,83 +406,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,14 +421,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,25 +436,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,7 +460,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,49 +478,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,42 +526,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -593,7 +538,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,13 +592,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,6 +645,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -655,11 +680,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,50 +742,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -745,10 +750,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,142 +762,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1210,8 +1216,8 @@
   <sheetPr/>
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="R72" sqref="R72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1259,7 +1265,7 @@
       <c r="M1" s="2">
         <v>6.52</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1303,8 +1309,8 @@
       <c r="M2" s="2">
         <v>9.67</v>
       </c>
-      <c r="N2" s="2">
-        <v>4</v>
+      <c r="N2" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:14">
@@ -1347,8 +1353,8 @@
       <c r="M3" s="2">
         <v>10.1</v>
       </c>
-      <c r="N3" s="2">
-        <v>3</v>
+      <c r="N3" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:14">
@@ -1391,7 +1397,7 @@
       <c r="M4" s="2">
         <v>8.04</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1435,7 +1441,7 @@
       <c r="M5" s="2">
         <v>11.21</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1479,8 +1485,8 @@
       <c r="M6" s="2">
         <v>9.29</v>
       </c>
-      <c r="N6" s="2">
-        <v>0</v>
+      <c r="N6" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:14">
@@ -1523,7 +1529,7 @@
       <c r="M7" s="2">
         <v>3.6</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1567,8 +1573,8 @@
       <c r="M8" s="2">
         <v>9</v>
       </c>
-      <c r="N8" s="2">
-        <v>3</v>
+      <c r="N8" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:14">
@@ -1611,8 +1617,8 @@
       <c r="M9" s="2">
         <v>4.48</v>
       </c>
-      <c r="N9" s="2">
-        <v>3</v>
+      <c r="N9" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:14">
@@ -1655,7 +1661,7 @@
       <c r="M10" s="2">
         <v>1.54</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1699,8 +1705,8 @@
       <c r="M11" s="2">
         <v>8.81</v>
       </c>
-      <c r="N11" s="2">
-        <v>2</v>
+      <c r="N11" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:14">
@@ -1743,7 +1749,7 @@
       <c r="M12" s="2">
         <v>11.29</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1787,7 +1793,7 @@
       <c r="M13" s="2">
         <v>9.42</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1831,7 +1837,7 @@
       <c r="M14" s="2">
         <v>12.75</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1875,7 +1881,7 @@
       <c r="M15" s="2">
         <v>15.27</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1919,8 +1925,8 @@
       <c r="M16" s="2">
         <v>11.5</v>
       </c>
-      <c r="N16" s="2">
-        <v>3</v>
+      <c r="N16" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:14">
@@ -1963,8 +1969,8 @@
       <c r="M17" s="2">
         <v>11.58</v>
       </c>
-      <c r="N17" s="2">
-        <v>1</v>
+      <c r="N17" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:14">
@@ -2007,8 +2013,8 @@
       <c r="M18" s="2">
         <v>8.5</v>
       </c>
-      <c r="N18" s="2">
-        <v>3</v>
+      <c r="N18" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:14">
@@ -2051,7 +2057,7 @@
       <c r="M19" s="2">
         <v>1.21</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2095,8 +2101,8 @@
       <c r="M20" s="2">
         <v>11.1</v>
       </c>
-      <c r="N20" s="2">
-        <v>4</v>
+      <c r="N20" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:14">
@@ -2139,7 +2145,7 @@
       <c r="M21" s="2">
         <v>6.83</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2183,7 +2189,7 @@
       <c r="M22" s="2">
         <v>0</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2227,7 +2233,7 @@
       <c r="M23" s="2">
         <v>0.56</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2271,7 +2277,7 @@
       <c r="M24" s="2">
         <v>2.44</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N24" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2315,7 +2321,7 @@
       <c r="M25" s="2">
         <v>0</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2359,7 +2365,7 @@
       <c r="M26" s="2">
         <v>1.42</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2403,7 +2409,7 @@
       <c r="M27" s="2">
         <v>0.08</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2447,7 +2453,7 @@
       <c r="M28" s="2">
         <v>0.06</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N28" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2491,7 +2497,7 @@
       <c r="M29" s="2">
         <v>3.19</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N29" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2535,8 +2541,8 @@
       <c r="M30" s="2">
         <v>1</v>
       </c>
-      <c r="N30" s="2">
-        <v>0</v>
+      <c r="N30" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:14">
@@ -2579,7 +2585,7 @@
       <c r="M31" s="2">
         <v>1.67</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31" s="3">
         <v>2</v>
       </c>
     </row>
@@ -2623,7 +2629,7 @@
       <c r="M32" s="2">
         <v>3.33</v>
       </c>
-      <c r="N32" s="2">
+      <c r="N32" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2667,7 +2673,7 @@
       <c r="M33" s="2">
         <v>10.06</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33" s="3">
         <v>2</v>
       </c>
     </row>
@@ -2711,7 +2717,7 @@
       <c r="M34" s="2">
         <v>0.21</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N34" s="3">
         <v>2</v>
       </c>
     </row>
@@ -2755,7 +2761,7 @@
       <c r="M35" s="2">
         <v>8.47</v>
       </c>
-      <c r="N35" s="2">
+      <c r="N35" s="3">
         <v>2</v>
       </c>
     </row>
@@ -2799,7 +2805,7 @@
       <c r="M36" s="2">
         <v>9.29</v>
       </c>
-      <c r="N36" s="2">
+      <c r="N36" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2843,8 +2849,8 @@
       <c r="M37" s="2">
         <v>10.6</v>
       </c>
-      <c r="N37" s="2">
-        <v>0</v>
+      <c r="N37" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:14">
@@ -2887,8 +2893,8 @@
       <c r="M38" s="2">
         <v>9.25</v>
       </c>
-      <c r="N38" s="2">
-        <v>0</v>
+      <c r="N38" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:14">
@@ -2931,8 +2937,8 @@
       <c r="M39" s="2">
         <v>5.94</v>
       </c>
-      <c r="N39" s="2">
-        <v>2</v>
+      <c r="N39" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:14">
@@ -2975,7 +2981,7 @@
       <c r="M40" s="2">
         <v>7.19</v>
       </c>
-      <c r="N40" s="2">
+      <c r="N40" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3019,8 +3025,8 @@
       <c r="M41" s="2">
         <v>8.88</v>
       </c>
-      <c r="N41" s="2">
-        <v>0</v>
+      <c r="N41" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:14">
@@ -3063,8 +3069,8 @@
       <c r="M42" s="2">
         <v>0.04</v>
       </c>
-      <c r="N42" s="2">
-        <v>0</v>
+      <c r="N42" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:14">
@@ -3107,7 +3113,7 @@
       <c r="M43" s="2">
         <v>2.92</v>
       </c>
-      <c r="N43" s="2">
+      <c r="N43" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3151,7 +3157,7 @@
       <c r="M44" s="2">
         <v>0.29</v>
       </c>
-      <c r="N44" s="2">
+      <c r="N44" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3195,8 +3201,8 @@
       <c r="M45" s="2">
         <v>3.69</v>
       </c>
-      <c r="N45" s="2">
-        <v>2</v>
+      <c r="N45" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:14">
@@ -3239,7 +3245,7 @@
       <c r="M46" s="2">
         <v>4.33</v>
       </c>
-      <c r="N46" s="2">
+      <c r="N46" s="3">
         <v>2</v>
       </c>
     </row>
@@ -3283,7 +3289,7 @@
       <c r="M47" s="2">
         <v>3.81</v>
       </c>
-      <c r="N47" s="2">
+      <c r="N47" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3327,7 +3333,7 @@
       <c r="M48" s="2">
         <v>6.31</v>
       </c>
-      <c r="N48" s="2">
+      <c r="N48" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3371,7 +3377,7 @@
       <c r="M49" s="2">
         <v>9.35</v>
       </c>
-      <c r="N49" s="2">
+      <c r="N49" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3415,8 +3421,8 @@
       <c r="M50" s="2">
         <v>5.02</v>
       </c>
-      <c r="N50" s="2">
-        <v>2</v>
+      <c r="N50" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:14">
@@ -3459,7 +3465,7 @@
       <c r="M51" s="2">
         <v>3.67</v>
       </c>
-      <c r="N51" s="2">
+      <c r="N51" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3503,7 +3509,7 @@
       <c r="M52" s="2">
         <v>4.96</v>
       </c>
-      <c r="N52" s="2">
+      <c r="N52" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3547,7 +3553,7 @@
       <c r="M53" s="2">
         <v>3.02</v>
       </c>
-      <c r="N53" s="2">
+      <c r="N53" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3591,7 +3597,7 @@
       <c r="M54" s="2">
         <v>4.67</v>
       </c>
-      <c r="N54" s="2">
+      <c r="N54" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3635,7 +3641,7 @@
       <c r="M55" s="2">
         <v>0</v>
       </c>
-      <c r="N55" s="2">
+      <c r="N55" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3679,7 +3685,7 @@
       <c r="M56" s="2">
         <v>0</v>
       </c>
-      <c r="N56" s="2">
+      <c r="N56" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3723,7 +3729,7 @@
       <c r="M57" s="2">
         <v>2.33</v>
       </c>
-      <c r="N57" s="2">
+      <c r="N57" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3767,7 +3773,7 @@
       <c r="M58" s="2">
         <v>2.23</v>
       </c>
-      <c r="N58" s="2">
+      <c r="N58" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3811,7 +3817,7 @@
       <c r="M59" s="2">
         <v>8.06</v>
       </c>
-      <c r="N59" s="2">
+      <c r="N59" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3855,7 +3861,7 @@
       <c r="M60" s="2">
         <v>6.92</v>
       </c>
-      <c r="N60" s="2">
+      <c r="N60" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3899,7 +3905,7 @@
       <c r="M61" s="2">
         <v>6.62</v>
       </c>
-      <c r="N61" s="2">
+      <c r="N61" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3943,7 +3949,7 @@
       <c r="M62" s="2">
         <v>7.44</v>
       </c>
-      <c r="N62" s="2">
+      <c r="N62" s="3">
         <v>1</v>
       </c>
     </row>
@@ -3987,8 +3993,8 @@
       <c r="M63" s="2">
         <v>8.5</v>
       </c>
-      <c r="N63" s="2">
-        <v>2</v>
+      <c r="N63" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="64" ht="15" spans="1:14">
@@ -4031,7 +4037,7 @@
       <c r="M64" s="2">
         <v>12.6</v>
       </c>
-      <c r="N64" s="2">
+      <c r="N64" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4075,7 +4081,7 @@
       <c r="M65" s="2">
         <v>7.27</v>
       </c>
-      <c r="N65" s="2">
+      <c r="N65" s="3">
         <v>2</v>
       </c>
     </row>
@@ -4119,7 +4125,7 @@
       <c r="M66" s="2">
         <v>3.62</v>
       </c>
-      <c r="N66" s="2">
+      <c r="N66" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4163,7 +4169,7 @@
       <c r="M67" s="2">
         <v>7.77</v>
       </c>
-      <c r="N67" s="2">
+      <c r="N67" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4207,7 +4213,7 @@
       <c r="M68" s="2">
         <v>1.92</v>
       </c>
-      <c r="N68" s="2">
+      <c r="N68" s="3">
         <v>1</v>
       </c>
     </row>
@@ -4251,7 +4257,7 @@
       <c r="M69" s="2">
         <v>3.77</v>
       </c>
-      <c r="N69" s="2">
+      <c r="N69" s="3">
         <v>1</v>
       </c>
     </row>
@@ -4295,7 +4301,7 @@
       <c r="M70" s="2">
         <v>0.02</v>
       </c>
-      <c r="N70" s="2">
+      <c r="N70" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4339,7 +4345,7 @@
       <c r="M71" s="2">
         <v>0.73</v>
       </c>
-      <c r="N71" s="2">
+      <c r="N71" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4383,7 +4389,7 @@
       <c r="M72" s="2">
         <v>1.35</v>
       </c>
-      <c r="N72" s="2">
+      <c r="N72" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4427,7 +4433,7 @@
       <c r="M73" s="2">
         <v>1.4</v>
       </c>
-      <c r="N73" s="2">
+      <c r="N73" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4471,7 +4477,7 @@
       <c r="M74" s="2">
         <v>1.77</v>
       </c>
-      <c r="N74" s="2">
+      <c r="N74" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4515,7 +4521,7 @@
       <c r="M75" s="2">
         <v>1.67</v>
       </c>
-      <c r="N75" s="2">
+      <c r="N75" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4559,7 +4565,7 @@
       <c r="M76" s="2">
         <v>1.71</v>
       </c>
-      <c r="N76" s="2">
+      <c r="N76" s="3">
         <v>1</v>
       </c>
     </row>
@@ -4603,7 +4609,7 @@
       <c r="M77" s="2">
         <v>0</v>
       </c>
-      <c r="N77" s="2">
+      <c r="N77" s="3">
         <v>1</v>
       </c>
     </row>
@@ -4647,7 +4653,7 @@
       <c r="M78" s="2">
         <v>0.65</v>
       </c>
-      <c r="N78" s="2">
+      <c r="N78" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4691,7 +4697,7 @@
       <c r="M79" s="2">
         <v>0.92</v>
       </c>
-      <c r="N79" s="2">
+      <c r="N79" s="3">
         <v>0</v>
       </c>
     </row>
